--- a/SeleniumFeb2021/data/excel/Test Data.xlsx
+++ b/SeleniumFeb2021/data/excel/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SeleniumFebrero2021\SeleniumFeb2021\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6AF674-A89A-4619-98D1-6F1814B31AEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E44241-EAF1-4688-9AFB-F2D62A3EBA18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="29040" windowHeight="15990" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>User</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Sergio</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -443,6 +446,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
     </row>
